--- a/backend/backend/main/migrations/start_data.xlsx
+++ b/backend/backend/main/migrations/start_data.xlsx
@@ -18,7 +18,9 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b val="true"/>
+        <sz val="11"/>
       </rPr>
       <t>Название</t>
     </r>
@@ -26,7 +28,9 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b val="true"/>
+        <sz val="11"/>
       </rPr>
       <t>Описание</t>
     </r>
@@ -52,8 +56,10 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b val="true"/>
         <color rgb="000000" tint="0"/>
+        <sz val="11"/>
       </rPr>
       <t>Название ВУЗа</t>
     </r>
@@ -61,8 +67,10 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b val="true"/>
         <color rgb="000000" tint="0"/>
+        <sz val="11"/>
       </rPr>
       <t>Название здания</t>
     </r>
@@ -70,8 +78,10 @@
   <si>
     <r>
       <rPr>
+        <rFont val="Calibri"/>
         <b val="true"/>
         <color rgb="000000" tint="0"/>
+        <sz val="11"/>
       </rPr>
       <t>Описание</t>
     </r>
@@ -299,14 +309,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color theme="1" tint="0"/>
-        <sz val="11"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Аудитория 423</t>
-    </r>
+    <t>517А</t>
   </si>
   <si>
     <r>
@@ -316,6 +319,486 @@
         <scheme val="minor"/>
       </rPr>
       <t>Аудитория 422</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>518</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>515</t>
+    </r>
+  </si>
+  <si>
+    <t>516А</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>516А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>516</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>513</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>514</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>511</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>512</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>509</t>
+    </r>
+  </si>
+  <si>
+    <t>507А</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>507А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>507</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>508</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>505</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>506</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>503</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>428</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>419</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>426</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>417</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>424</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>415</t>
+    </r>
+  </si>
+  <si>
+    <t>424А</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>424А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>413</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>422</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>411</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>420</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>409</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>418</t>
+    </r>
+  </si>
+  <si>
+    <t>407А</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>407А</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>416</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>407</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>414</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>412</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>410</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>405</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color theme="1" tint="0"/>
+        <sz val="11"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Аудитория </t>
+    </r>
+    <r>
+      <t>403</t>
     </r>
   </si>
   <si>
@@ -353,11 +836,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="true"/>
+      <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="true"/>
       <color rgb="000000" tint="0"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="true"/>
@@ -404,7 +891,7 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyFill="true" borderId="0" fillId="2" fontId="0" quotePrefix="false"/>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="2" fontId="0" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="2" fontId="2" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" borderId="0" fillId="2" fontId="3" quotePrefix="false"/>
     <xf applyFill="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="2" fontId="4" numFmtId="1000" quotePrefix="false"/>
@@ -863,7 +1350,7 @@
   <sheetPr>
     <outlinePr summaryBelow="true" summaryRight="true"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView showZeros="true" workbookViewId="0"/>
   </sheetViews>
@@ -905,13 +1392,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>20</v>
@@ -925,14 +1412,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C2+1</f>
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>20</v>
@@ -946,8 +1432,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3+1</f>
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>39</v>
@@ -968,13 +1453,13 @@
       </c>
       <c r="C5" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4+1</f>
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>20</v>
@@ -988,8 +1473,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5+1</f>
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>41</v>
@@ -1009,8 +1493,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6+1</f>
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>42</v>
@@ -1030,14 +1513,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7+1</f>
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>20</v>
@@ -1052,13 +1534,13 @@
       </c>
       <c r="C9" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8+1</f>
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>20</v>
@@ -1072,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>411</v>
+        <v>525</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>45</v>
@@ -1093,13 +1575,13 @@
       </c>
       <c r="C11" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10+1</f>
-        <v>412</v>
+        <v>526</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>20</v>
@@ -1113,14 +1595,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11+1</f>
-        <v>413</v>
+        <v>523</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>20</v>
@@ -1135,7 +1616,7 @@
       </c>
       <c r="C13" s="0" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12+1</f>
-        <v>414</v>
+        <v>524</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>48</v>
@@ -1152,16 +1633,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>20</v>
@@ -1172,16 +1653,14 @@
         <v>2</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>423</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>50</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="D15" s="0" t="n"/>
       <c r="E15" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>20</v>
@@ -1192,20 +1671,809 @@
         <v>2</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>422</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>51</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="D16" s="0" t="n"/>
       <c r="E16" s="0" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>20</v>
       </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>522</v>
+      </c>
+      <c r="D17" s="0" t="n"/>
+      <c r="E17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="0" t="n"/>
+      <c r="E18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>518</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>515</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>516</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>513</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>511</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>512</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>509</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>507</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>505</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>506</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>428</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>419</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>426</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>417</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>415</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>413</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>422</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>411</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>420</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>409</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>418</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>416</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>414</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>412</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>410</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>405</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="n"/>
+      <c r="B56" s="0" t="n"/>
+      <c r="C56" s="0" t="n"/>
+      <c r="D56" s="0" t="n"/>
+      <c r="F56" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="C57" s="0" t="n"/>
+      <c r="D57" s="0" t="n"/>
+      <c r="F57" s="0" t="n"/>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="F58" s="0" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.590555548667908" footer="0.5" header="0.5" left="0.590555548667908" right="0.590555548667908" top="0.590555548667908"/>
@@ -1230,21 +2498,21 @@
   <sheetData>
     <row customFormat="true" ht="15" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>28</v>
